--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2634.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2634.xlsx
@@ -354,7 +354,7 @@
         <v>1.612463846081255</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.621655184213535</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2634.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2634.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7980788599306262</v>
+        <v>1.22690486907959</v>
       </c>
       <c r="B1">
-        <v>1.612463846081255</v>
+        <v>2.307052612304688</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.390167474746704</v>
       </c>
       <c r="D1">
-        <v>1.621655184213535</v>
+        <v>2.128296375274658</v>
       </c>
       <c r="E1">
-        <v>0.8820529628388302</v>
+        <v>1.33695387840271</v>
       </c>
     </row>
   </sheetData>
